--- a/temp_excel_files/Halls.xlsx
+++ b/temp_excel_files/Halls.xlsx
@@ -425,16 +425,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="" customWidth="1" min="1" max="1"/>
+    <col width="" customWidth="1" min="2" max="2"/>
+    <col width="" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ConferenceId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>

--- a/temp_excel_files/Halls.xlsx
+++ b/temp_excel_files/Halls.xlsx
@@ -432,11 +432,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="" customWidth="1" min="1" max="1"/>
-    <col width="" customWidth="1" min="2" max="2"/>
-    <col width="" customWidth="1" min="3" max="3"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
